--- a/springboot-init/src/main/resources/Data.xlsx
+++ b/springboot-init/src/main/resources/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\BI-platform\springboot-init\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD0DEA8-7FE6-48B0-8894-537992115334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DBE53-D7BB-4FB6-B854-FB1FA346B5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -35,36 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>日期</t>
+    <t>Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
+    <t>TotalUser</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -126,12 +103,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -170,6 +141,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +464,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="22.5"/>
@@ -508,8 +483,8 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
+      <c r="A2" s="9">
+        <v>45292</v>
       </c>
       <c r="B2" s="7">
         <v>10</v>
@@ -518,16 +493,16 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
+      <c r="A3" s="10">
+        <v>45293</v>
       </c>
       <c r="B3" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
+      <c r="A4" s="10">
+        <v>45294</v>
       </c>
       <c r="B4" s="8">
         <v>30</v>

--- a/springboot-init/src/main/resources/Data.xlsx
+++ b/springboot-init/src/main/resources/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\BI-platform\springboot-init\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DBE53-D7BB-4FB6-B854-FB1FA346B5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DDD738-59F6-4F15-B9A1-F1BA9B754305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="22.5"/>
@@ -508,6 +508,78 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9">
+        <v>45295</v>
+      </c>
+      <c r="B5" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10">
+        <v>45296</v>
+      </c>
+      <c r="B6" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10">
+        <v>45297</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9">
+        <v>45298</v>
+      </c>
+      <c r="B8" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10">
+        <v>45299</v>
+      </c>
+      <c r="B9" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10">
+        <v>45300</v>
+      </c>
+      <c r="B10" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9">
+        <v>45301</v>
+      </c>
+      <c r="B11" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10">
+        <v>45302</v>
+      </c>
+      <c r="B12" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10">
+        <v>45303</v>
+      </c>
+      <c r="B13" s="8">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
